--- a/data/trans_dic/MCS12_SP_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,6; 38,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,22</t>
+          <t>4,18; 9,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,52; 59,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,0</t>
+          <t>5,14; 10,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,88; 47,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,23</t>
+          <t>5,37; 8,95</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>19,88%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,42; 19,97</t>
+          <t>12,08; 19,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,33; 27,82</t>
+          <t>21,23; 27,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,54; 22,91</t>
+          <t>17,11; 22,43</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,58%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 17,18</t>
+          <t>9,92; 17,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 23,82</t>
+          <t>16,48; 23,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,65; 19,42</t>
+          <t>14,39; 19,08</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>15,34%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,61; 30,08</t>
+          <t>17,74; 26,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 16,94</t>
+          <t>8,97; 16,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,96; 50,84</t>
+          <t>37,17; 47,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 25,27</t>
+          <t>10,28; 22,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,04; 39,52</t>
+          <t>29,08; 36,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 20,48</t>
+          <t>10,64; 18,81</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>54,64%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,92; 54,86</t>
+          <t>41,85; 54,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,46; 64,37</t>
+          <t>55,04; 64,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,01; 58,26</t>
+          <t>50,37; 58,48</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,98%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,91; 20,51</t>
+          <t>12,76; 20,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,22; 23,93</t>
+          <t>16,19; 23,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 21,07</t>
+          <t>15,34; 20,83</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>41,46%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,66; 30,74</t>
+          <t>22,73; 31,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,46; 63,33</t>
+          <t>35,43; 74,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,91; 51,33</t>
+          <t>30,93; 61,93</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>22,57%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,19</t>
+          <t>7,52; 23,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,42; 33,5</t>
+          <t>27,67; 33,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,64; 27,83</t>
+          <t>13,01; 27,1</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>24,81%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,22; 21,57</t>
+          <t>14,2; 20,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,21; 37,59</t>
+          <t>26,13; 44,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>23,53; 28,62</t>
+          <t>21,79; 30,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 22,21</t>
+          <t>13,31; 22,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,6; 38,53</t>
+          <t>27,69; 38,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,07; 37,41</t>
+          <t>25,88; 37,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,77</t>
+          <t>4,3; 9,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,14; 31,83</t>
+          <t>20,7; 31,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,52; 59,0</t>
+          <t>46,78; 58,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,56; 49,7</t>
+          <t>38,11; 49,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,02</t>
+          <t>5,01; 9,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 25,34</t>
+          <t>18,32; 25,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,88; 47,26</t>
+          <t>38,53; 46,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,66; 41,66</t>
+          <t>33,49; 41,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,95</t>
+          <t>5,29; 9,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,24; 30,46</t>
+          <t>22,76; 31,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 18,71</t>
+          <t>12,37; 19,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,24</t>
+          <t>6,26; 11,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 19,74</t>
+          <t>12,35; 19,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,16; 45,29</t>
+          <t>36,71; 45,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,69; 30,18</t>
+          <t>22,15; 29,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,65</t>
+          <t>12,35; 18,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,23; 27,68</t>
+          <t>21,14; 28,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,6; 36,52</t>
+          <t>30,41; 36,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,09; 23,22</t>
+          <t>17,95; 23,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,09; 14,05</t>
+          <t>10,14; 14,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 22,43</t>
+          <t>17,57; 22,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,15</t>
+          <t>2,02; 6,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 19,51</t>
+          <t>11,34; 20,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 13,2</t>
+          <t>7,32; 13,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,09</t>
+          <t>9,62; 16,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 13,58</t>
+          <t>7,25; 13,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,33; 28,63</t>
+          <t>19,27; 28,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,2; 19,01</t>
+          <t>11,31; 19,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 23,59</t>
+          <t>16,55; 23,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,13</t>
+          <t>5,23; 9,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,68</t>
+          <t>16,46; 22,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,18</t>
+          <t>10,14; 15,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 19,08</t>
+          <t>14,2; 19,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,38</t>
+          <t>6,63; 13,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 26,75</t>
+          <t>17,99; 27,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 23,69</t>
+          <t>15,66; 23,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,97; 16,64</t>
+          <t>9,03; 17,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,71; 20,44</t>
+          <t>13,0; 20,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,17; 47,57</t>
+          <t>37,37; 47,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,54; 37,24</t>
+          <t>27,5; 37,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 22,52</t>
+          <t>10,76; 22,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,72</t>
+          <t>10,8; 15,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,08; 36,0</t>
+          <t>29,22; 36,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,65; 29,51</t>
+          <t>22,46; 29,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 18,81</t>
+          <t>11,23; 18,79</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 37,53</t>
+          <t>24,79; 37,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 18,05</t>
+          <t>8,96; 18,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,98; 47,71</t>
+          <t>34,47; 47,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,85; 54,87</t>
+          <t>42,16; 54,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,45; 44,83</t>
+          <t>31,76; 44,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,79; 38,13</t>
+          <t>25,7; 38,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,59; 57,32</t>
+          <t>43,74; 57,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>55,04; 64,78</t>
+          <t>55,13; 64,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,92; 39,22</t>
+          <t>29,81; 38,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,63; 26,47</t>
+          <t>18,68; 26,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,73; 50,31</t>
+          <t>41,86; 50,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,37; 58,48</t>
+          <t>50,75; 58,74</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,61</t>
+          <t>3,11; 8,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,36; 21,43</t>
+          <t>12,31; 21,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,47; 16,39</t>
+          <t>8,45; 16,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,76; 20,28</t>
+          <t>12,83; 20,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,94; 19,69</t>
+          <t>10,99; 20,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,63; 31,52</t>
+          <t>20,72; 31,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,43; 28,91</t>
+          <t>18,36; 28,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,19; 23,89</t>
+          <t>16,54; 24,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,95</t>
+          <t>7,52; 12,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,92; 25,09</t>
+          <t>17,51; 24,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,58; 21,67</t>
+          <t>14,49; 21,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,34; 20,83</t>
+          <t>15,43; 20,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,7; 17,32</t>
+          <t>11,39; 17,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,92; 22,16</t>
+          <t>16,11; 22,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,07</t>
+          <t>17,39; 24,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,67</t>
+          <t>23,27; 32,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 23,26</t>
+          <t>16,99; 23,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,36; 27,09</t>
+          <t>20,37; 27,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,08; 33,42</t>
+          <t>26,4; 33,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,43; 74,0</t>
+          <t>35,48; 81,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,02; 19,32</t>
+          <t>15,2; 19,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,18; 23,95</t>
+          <t>19,08; 23,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,96; 27,94</t>
+          <t>23,01; 28,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,93; 61,93</t>
+          <t>31,06; 65,43</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,27; 33,14</t>
+          <t>26,33; 32,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,83; 36,92</t>
+          <t>29,85; 36,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,31; 21,89</t>
+          <t>16,17; 21,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,52; 23,4</t>
+          <t>7,42; 23,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,14; 38,94</t>
+          <t>32,43; 39,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,62; 42,49</t>
+          <t>35,61; 42,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,58; 25,64</t>
+          <t>19,62; 25,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,67; 33,56</t>
+          <t>27,49; 33,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,47; 35,21</t>
+          <t>30,4; 35,38</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,06; 38,73</t>
+          <t>34,21; 39,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18,74; 23,04</t>
+          <t>18,93; 23,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,01; 27,1</t>
+          <t>13,73; 27,34</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,28; 19,96</t>
+          <t>17,32; 20,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,86</t>
+          <t>20,83; 23,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,61; 20,22</t>
+          <t>17,49; 20,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,46</t>
+          <t>14,1; 20,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,04; 27,96</t>
+          <t>24,9; 28,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,04; 34,38</t>
+          <t>31,08; 34,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,3; 28,41</t>
+          <t>25,34; 28,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,13; 44,18</t>
+          <t>26,16; 43,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,66; 23,63</t>
+          <t>21,7; 23,73</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>26,52; 28,64</t>
+          <t>26,45; 28,57</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>21,93; 24,0</t>
+          <t>21,91; 23,92</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>21,79; 30,88</t>
+          <t>21,89; 32,04</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>47955</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>96289</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91794</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20587</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>66985</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>152484</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>126271</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21029</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>114940</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>248773</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>218065</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41616</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36346; 61454</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>81609; 113356</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76015; 109012</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13394; 30090</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53982; 82108</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>134363; 169324</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>110030; 142401</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14506; 28378</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97806; 135334</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>224215; 272366</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>195057; 242773</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>31826; 54211</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>131149</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>76228</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42950</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>80791</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>205820</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>135072</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>80632</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>124163</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>336969</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>211301</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>123582</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>204953</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>112209; 153398</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>62557; 97084</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31472; 56934</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>63912; 101637</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>184984; 227786</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>116027; 155628</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>64617; 98291</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>108573; 144533</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>303154; 366230</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>184763; 239879</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>104015; 146895</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>181174; 236185</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11523</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48131</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31408</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41010</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>34095</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>80601</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49724</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68147</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45618</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>128732</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>81131</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109157</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6437; 20914</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36744; 64970</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23317; 43668</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30212; 52368</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24330; 46596</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>65729; 97274</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38033; 64371</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56934; 79717</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34206; 60317</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>109460; 150829</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66432; 99763</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93467; 127053</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35211</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>83375</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>71943</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>38063</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>61557</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>164274</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>124231</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81065</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>96767</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>247648</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>196174</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>119129</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23789; 48305</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>67274; 101899</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>57949; 86590</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27657; 53668</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48296; 76528</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>145341; 184947</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>106506; 144957</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>50611; 108008</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>78821; 116294</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>222947; 274633</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>170083; 223017</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>87250; 145927</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>61920</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>27753</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>86694</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>86316</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>79050</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>69487</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>111198</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>123969</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>140970</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>97239</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>197892</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>210285</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>50407; 75394</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19058; 38672</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>72803; 101200</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>75145; 97410</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>65960; 92904</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56429; 83976</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>95606; 126177</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>113919; 133832</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>122524; 159431</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>80737; 115657</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>179901; 218107</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>195345; 226101</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14016</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>45419</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>31744</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>43392</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>41284</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>72110</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>63850</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51215</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>55301</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>117528</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>95594</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>94607</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8431; 23279</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>33736; 58820</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>22247; 43801</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>34523; 55644</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>30570; 55780</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>58021; 87418</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>50142; 77070</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>42509; 61864</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>41306; 69838</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>96987; 135858</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>77710; 114905</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>81172; 109131</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>87204</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>125647</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>135695</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>167644</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>128353</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>165658</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>205962</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>440416</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>215558</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>291306</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>341657</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>608060</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>70028; 106005</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>106753; 149551</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>114205; 158380</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>144270; 199369</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>108451; 148762</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>141355; 189705</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>182530; 233128</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>300476; 687088</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>190510; 241481</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>258867; 323568</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>310174; 377606</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>455630; 959679</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>221561</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>260736</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>147995</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>154440</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>279993</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>323008</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>187148</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>216219</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>501554</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>583744</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>335143</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>370659</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>195871; 244337</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>232530; 287393</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>125935; 169866</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>68820; 217631</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>254091; 309203</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>293408; 351183</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>162091; 212508</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>196587; 236504</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>464360; 540434</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>548418; 625296</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>303736; 372869</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>225528; 448964</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>610539</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>763578</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>640223</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>632243</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>897137</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1162693</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>949015</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1126222</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1507677</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1926272</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1589239</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1758466</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>567515; 656212</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>713821; 814262</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>593816; 685543</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>485466; 699541</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>841377; 950929</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1105945; 1228193</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>898089; 1003188</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>953102; 1577346</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1444252; 1579259</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1847857; 1995433</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1519999; 1660006</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1551484; 2271052</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>